--- a/To Be Modeled/Allison Transmission.xlsx
+++ b/To Be Modeled/Allison Transmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9756C29-EE67-074C-9638-D0C839CA5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917B6CA-89DC-344C-B531-57B0382FA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1059,6 +1059,12 @@
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,12 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2233,9 +2233,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2244,18 +2242,26 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0060000000000005E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2267,20 +2273,14 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7280000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2406,11 +2406,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>54.82</v>
+    <v>58.42</v>
     <v>32.630000000000003</v>
-    <v>0.998</v>
-    <v>0.55000000000000004</v>
-    <v>1.0273000000000001E-2</v>
+    <v>1.0004</v>
+    <v>0.28000000000000003</v>
+    <v>4.8539999999999998E-3</v>
     <v>USD</v>
     <v>Allison Transmission Holdings, Inc. is a designer and manufacturer of propulsion solutions for commercial and defense vehicles. The Company is also a manufacturer of medium-and heavy-duty fully automatic transmissions. Its products are used in a variety of applications, including on-highway trucks, including distribution, refuse, construction, fire and emergency; buses, including school, transit and coach; motorhomes, off-highway vehicles, and equipment, including energy, mining and construction applications; and defense vehicles, including tactical wheeled and tracked. The Company operates in approximately 150 countries. It has manufacturing facilities in the United States, Hungary and India, as well as global engineering resources, including electrification engineering centers in Indianapolis, Indiana, Auburn Hills, Michigan and London in the United Kingdom. The Company also has approximately 1,400 independent distributor and dealer locations worldwide.</v>
     <v>3500</v>
@@ -2418,24 +2418,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Allison Way, INDIANAPOLIS, IN, 46222 US</v>
-    <v>54.16</v>
+    <v>58.31</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45099.958333367969</v>
+    <v>45119.958333367969</v>
     <v>0</v>
-    <v>53.41</v>
-    <v>4925177390</v>
+    <v>57.75</v>
+    <v>5277561130</v>
     <v>ALLISON TRANSMISSION HOLDINGS, INC.</v>
     <v>ALLISON TRANSMISSION HOLDINGS, INC.</v>
-    <v>53.54</v>
-    <v>8.9075000000000006</v>
-    <v>53.54</v>
-    <v>54.09</v>
+    <v>58.24</v>
+    <v>9.5448000000000004</v>
+    <v>57.68</v>
+    <v>57.96</v>
     <v>91055230</v>
     <v>ALSN</v>
     <v>ALLISON TRANSMISSION HOLDINGS, INC. (XNYS:ALSN)</v>
-    <v>626243</v>
-    <v>781144</v>
+    <v>468514</v>
+    <v>768376</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2588,10 +2588,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3005,10 +3005,10 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O118" sqref="O1:W118"/>
+      <selection pane="bottomRight" activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3952,15 +3952,15 @@
       </c>
       <c r="U16" s="36">
         <f>V101/N3</f>
-        <v>1.7786845034308414</v>
+        <v>1.9059447923438064</v>
       </c>
       <c r="V16" s="36">
         <f>V101/N28</f>
-        <v>9.275286986817326</v>
+        <v>9.9389098493408667</v>
       </c>
       <c r="W16" s="37">
         <f>V101/N107</f>
-        <v>7.4964648249619481</v>
+        <v>8.0328175494672749</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4127,15 +4127,15 @@
       </c>
       <c r="U19" s="36">
         <f>V101/O3</f>
-        <v>1.6616657860998651</v>
+        <v>1.7805536875843455</v>
       </c>
       <c r="V19" s="36">
         <f>V101/O28</f>
-        <v>7.9182916237942118</v>
+        <v>8.4848249678456593</v>
       </c>
       <c r="W19" s="37">
         <f>V101/O106</f>
-        <v>6.8414743575496599</v>
+        <v>7.3309642033615781</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="V22" s="66">
         <f>(-1*N98)/V101</f>
-        <v>1.6243069774995456E-2</v>
+        <v>1.5158516979603418E-2</v>
       </c>
       <c r="W22" s="67">
         <f>N107/V101</f>
-        <v>0.13339621052715017</v>
+        <v>0.12448932069499306</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7120,10 +7120,10 @@
       <c r="N83" s="1">
         <v>-25000000</v>
       </c>
-      <c r="U83" s="68" t="s">
+      <c r="U83" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="V83" s="69"/>
+      <c r="V83" s="71"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7168,10 +7168,10 @@
       <c r="N84" s="1">
         <v>15000000</v>
       </c>
-      <c r="U84" s="70" t="s">
+      <c r="U84" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="V84" s="71"/>
+      <c r="V84" s="73"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7637,10 +7637,10 @@
       <c r="N93" s="1">
         <v>-160000000</v>
       </c>
-      <c r="U93" s="70" t="s">
+      <c r="U93" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="V93" s="71"/>
+      <c r="V93" s="73"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="V94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>4.0060000000000005E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="V95" s="49" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>0.998</v>
+        <v>1.0004</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="V97" s="47">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>8.3906560000000005E-2</v>
+        <v>8.401757600000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7888,10 +7888,10 @@
       <c r="N98" s="1">
         <v>-80000000</v>
       </c>
-      <c r="U98" s="70" t="s">
+      <c r="U98" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="V98" s="71"/>
+      <c r="V98" s="73"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="V100" s="45">
         <f>V99/V103</f>
-        <v>0.33731702951185882</v>
+        <v>0.32204769904607328</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="V101" s="50" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4925177390</v>
+        <v>5277561130</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="V102" s="45">
         <f>V101/V103</f>
-        <v>0.66268297048814118</v>
+        <v>0.67795230095392678</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="V103" s="51">
         <f>V99+V101</f>
-        <v>7432177390</v>
+        <v>7784561130</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8191,10 +8191,10 @@
       <c r="N104" s="11">
         <v>232000000</v>
       </c>
-      <c r="U104" s="70" t="s">
+      <c r="U104" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="V104" s="71"/>
+      <c r="V104" s="73"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="V105" s="32">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>6.8674205612736322E-2</v>
+        <v>6.9438992173593811E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,7 +8407,7 @@
       <c r="R107" s="27"/>
       <c r="S107" s="65">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>16142143258.613522</v>
+        <v>15892435615.215853</v>
       </c>
       <c r="T107" s="52" t="s">
         <v>153</v>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="S108" s="65">
         <f>S107+S106</f>
-        <v>16912443258.613522</v>
+        <v>16662735615.215853</v>
       </c>
       <c r="T108" s="52" t="s">
         <v>151</v>
@@ -8462,14 +8462,14 @@
       </c>
       <c r="V108" s="56">
         <f>V105</f>
-        <v>6.8674205612736322E-2</v>
+        <v>6.9438992173593811E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="72" t="s">
+      <c r="O109" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="P109" s="73"/>
+      <c r="P109" s="69"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="O110" s="57" t="s">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="P110" s="50">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>14572435496.825466</v>
+        <v>14346372351.906796</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="P113" s="50">
         <f>P110+P111-P112</f>
-        <v>12192435496.825466</v>
+        <v>11966372351.906796</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="P115" s="60">
         <f>P113/P114</f>
-        <v>144.54415407934368</v>
+        <v>141.86412300111547</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="P116" s="61" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>54.09</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="P117" s="63">
         <f>P115/P116-1</f>
-        <v>1.672289777765644</v>
+        <v>1.4476211697915025</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
